--- a/DateBase/orders/Fresh bloom Flowers_2025-9-25.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-9-25.xlsx
@@ -489,7 +489,7 @@
     </row>
     <row r="10">
       <c r="C10" t="str">
-        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
+        <v>45_拉丝艳粉_Spider pink+_Gerbera L._20stems</v>
       </c>
     </row>
     <row r="11">

--- a/DateBase/orders/Fresh bloom Flowers_2025-9-25.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-9-25.xlsx
@@ -494,7 +494,7 @@
     </row>
     <row r="11">
       <c r="C11" t="str">
-        <v>45_拉丝艳粉_Spider pink+_Gerbera L._20stems</v>
+        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-9-25.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-9-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -497,9 +497,60 @@
         <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>42_拉丝黄_Spider Yellow_Gerbera L._20stems</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>546_绿宝石_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>84_堪培拉_undefined_Gerbera L._10stems</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>393_天堂鸟_strelitzia reginae_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>516_火焰兰_Crocosmia_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="C19" t="str" xml:space="preserve">
+        <v xml:space="preserve">386_菟葵绿粉 
+green_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>449_柔丽思 绿_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>450_柔丽思 黄_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -557,7 +608,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>052000000000</v>
+        <v>0520000000000000000000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-9-25.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-9-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -548,9 +548,60 @@
         <v>450_柔丽思 黄_undefined_undefined_1bunch</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>543_柔丽思红_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>738_鸢尾花蓝_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>739_鸢尾花白_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>400_龙船花红_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>705_中华桔梗紫_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>819_中华桔梗白_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>476_酸浆果_Physalis_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="C30" t="str" xml:space="preserve">
+        <v xml:space="preserve">553_嘉兰百合
+multi-colors_ gloriosa_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>447_黄金球_craspedia_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -608,7 +659,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0520000000000000000000</v>
+        <v>05200000000000000000000000000000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-9-25.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-9-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -599,9 +599,62 @@
         <v>447_黄金球_craspedia_undefined_1bunch</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>107_绣球单瓣浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>244_繁星_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>276_情迷罗拉_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -659,7 +712,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05200000000000000000000000000000</v>
+        <v>052000000000000000000000000000000000000000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-9-25.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-9-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -652,9 +652,59 @@
         <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
       </c>
     </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>573_乒乓菊粉_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>734_乒乓菊红_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>15_深紫洋桔梗_Dark Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>424_鼠尾白色_veronica white_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>423_鼠尾紫色_veronica purple_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -712,7 +762,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>052000000000000000000000000000000000000000</v>
+        <v>0520000000000000000000000000000000000000000000000000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-9-25.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-9-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -702,9 +702,59 @@
         <v>423_鼠尾紫色_veronica purple_undefined_1bunch</v>
       </c>
     </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>517_鼠尾粉色_veronica pink_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>396_米花 白_rice flower white_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>490_米花 粉_rice flower pink_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>484_天鹅绒_Star of Bethlehem_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>470_海芋白_Calla Lily_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>745_海芋红_Calla Lily_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>775_海芋黑_Calla Lily_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>441_蓝星球_Echinops_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>529_针垫_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -762,7 +812,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0520000000000000000000000000000000000000000000000000</v>
+        <v>05200000000000000000000000000000000000000000000000000000000000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-9-25.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-9-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -752,9 +752,57 @@
         <v>529_针垫_undefined_undefined_1bunch</v>
       </c>
     </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>435_猫眼_Echinacea_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>402_大飞燕深紫色_delphinium purple_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v/>
+      </c>
+      <c r="C68" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>433_红豆_Hypericum red_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>565_千日红_Gomphrena_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L70"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -812,7 +860,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05200000000000000000000000000000000000000000000000000000000000</v>
+        <v>05200000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
     </row>
   </sheetData>
